--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -5649,263 +5649,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="187">
     <dxf>
       <font>
         <strike val="0"/>
@@ -6179,6 +5923,88 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -6298,6 +6124,34 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -6354,6 +6208,62 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -8216,39 +8126,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ENR" displayName="ENR" ref="A1:AD479" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ENR" displayName="ENR" ref="A1:AD479" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A1:AD479"/>
   <tableColumns count="30">
-    <tableColumn id="2" name="Month" dataDxfId="38"/>
-    <tableColumn id="3" name="LeadID" dataDxfId="37"/>
-    <tableColumn id="4" name="Lead Creation Date" dataDxfId="36"/>
-    <tableColumn id="5" name="Executive Name" dataDxfId="35"/>
-    <tableColumn id="9" name="Team" dataDxfId="34"/>
-    <tableColumn id="10" name="Student Name" dataDxfId="33"/>
-    <tableColumn id="11" name="Course Short Name" dataDxfId="32"/>
-    <tableColumn id="12" name="Specialization" dataDxfId="31"/>
-    <tableColumn id="13" name="Amount Received" dataDxfId="2"/>
-    <tableColumn id="15" name="Discount Amount" dataDxfId="0"/>
-    <tableColumn id="16" name="Discount Reason" dataDxfId="30"/>
-    <tableColumn id="17" name="Study Material" dataDxfId="29"/>
-    <tableColumn id="18" name="Study Material Discount" dataDxfId="28"/>
-    <tableColumn id="19" name="Amount Billed" dataDxfId="1"/>
-    <tableColumn id="20" name="Payment Mode" dataDxfId="27"/>
-    <tableColumn id="21" name="Account details" dataDxfId="26"/>
-    <tableColumn id="22" name="Payment Option" dataDxfId="25"/>
-    <tableColumn id="23" name="Sale Date" dataDxfId="24"/>
-    <tableColumn id="24" name="Contact Number" dataDxfId="5"/>
-    <tableColumn id="25" name="Email ID" dataDxfId="3"/>
-    <tableColumn id="27" name="Source type" dataDxfId="4"/>
-    <tableColumn id="29" name="Team2" dataDxfId="23"/>
-    <tableColumn id="30" name="Primary Source" dataDxfId="22"/>
-    <tableColumn id="31" name="Secondary Source" dataDxfId="21"/>
-    <tableColumn id="32" name="LeadID2" dataDxfId="20"/>
-    <tableColumn id="33" name="Source" dataDxfId="19"/>
-    <tableColumn id="36" name="Agency Source" dataDxfId="18"/>
-    <tableColumn id="38" name="1st payment" dataDxfId="17"/>
-    <tableColumn id="41" name="Enrollment Id" dataDxfId="16"/>
-    <tableColumn id="42" name="Cohort" dataDxfId="15"/>
+    <tableColumn id="2" name="Month" dataDxfId="29"/>
+    <tableColumn id="3" name="LeadID" dataDxfId="28"/>
+    <tableColumn id="4" name="Lead Creation Date" dataDxfId="27"/>
+    <tableColumn id="5" name="Executive Name" dataDxfId="26"/>
+    <tableColumn id="9" name="Team" dataDxfId="25"/>
+    <tableColumn id="10" name="Student Name" dataDxfId="24"/>
+    <tableColumn id="11" name="Course Short Name" dataDxfId="23"/>
+    <tableColumn id="12" name="Specialization" dataDxfId="22"/>
+    <tableColumn id="13" name="Amount Received" dataDxfId="21"/>
+    <tableColumn id="15" name="Discount Amount" dataDxfId="20"/>
+    <tableColumn id="16" name="Discount Reason" dataDxfId="19"/>
+    <tableColumn id="17" name="Study Material" dataDxfId="18"/>
+    <tableColumn id="18" name="Study Material Discount" dataDxfId="17"/>
+    <tableColumn id="19" name="Amount Billed" dataDxfId="16"/>
+    <tableColumn id="20" name="Payment Mode" dataDxfId="15"/>
+    <tableColumn id="21" name="Account details" dataDxfId="14"/>
+    <tableColumn id="22" name="Payment Option" dataDxfId="13"/>
+    <tableColumn id="23" name="Sale Date" dataDxfId="12"/>
+    <tableColumn id="24" name="Contact Number" dataDxfId="11"/>
+    <tableColumn id="25" name="Email ID" dataDxfId="10"/>
+    <tableColumn id="27" name="Source type" dataDxfId="9"/>
+    <tableColumn id="29" name="Team2" dataDxfId="8"/>
+    <tableColumn id="30" name="Primary Source" dataDxfId="7"/>
+    <tableColumn id="31" name="Secondary Source" dataDxfId="6"/>
+    <tableColumn id="32" name="LeadID2" dataDxfId="5"/>
+    <tableColumn id="33" name="Source" dataDxfId="4"/>
+    <tableColumn id="36" name="Agency Source" dataDxfId="3"/>
+    <tableColumn id="38" name="1st payment" dataDxfId="2"/>
+    <tableColumn id="41" name="Enrollment Id" dataDxfId="1"/>
+    <tableColumn id="42" name="Cohort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8519,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49747,202 +49657,202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="195" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B323 B325:B479">
-    <cfRule type="duplicateValues" dxfId="178" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B479">
-    <cfRule type="duplicateValues" dxfId="176" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B323 B325:B479">
-    <cfRule type="duplicateValues" dxfId="174" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B324">
-    <cfRule type="duplicateValues" dxfId="165" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="143" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="134" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="128" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F479">
-    <cfRule type="duplicateValues" dxfId="126" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1">
-    <cfRule type="duplicateValues" dxfId="125" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P101:P125">
-    <cfRule type="duplicateValues" dxfId="124" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="duplicateValues" dxfId="120" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S479">
-    <cfRule type="duplicateValues" dxfId="119" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S479">
-    <cfRule type="duplicateValues" dxfId="118" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="duplicateValues" dxfId="114" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="111" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T126:T479 T2:T100">
-    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T101:T125">
-    <cfRule type="duplicateValues" dxfId="99" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="95" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="duplicateValues" dxfId="89" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y479">
-    <cfRule type="duplicateValues" dxfId="82" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="duplicateValues" dxfId="60" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B323 B325:B479">
-    <cfRule type="duplicateValues" dxfId="56" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="165"/>
   </conditionalFormatting>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K479">
